--- a/rhla_analysis/rhla1_3_uniform_result/k5.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k5.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005516455046491236</v>
+        <v>0.005516455046491258</v>
       </c>
       <c r="B2" t="n">
         <v>0.080396335630937</v>
@@ -466,12 +466,12 @@
         <v>0.118925831202046</v>
       </c>
       <c r="D2" t="n">
-        <v>14.57391294832964</v>
+        <v>14.57391294832958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006311645452349906</v>
+        <v>0.006311645452349873</v>
       </c>
       <c r="B3" t="n">
         <v>0.08303220370805972</v>
@@ -480,12 +480,12 @@
         <v>0.1052855924978687</v>
       </c>
       <c r="D3" t="n">
-        <v>13.15539732624648</v>
+        <v>13.15539732624655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003327445603876409</v>
+        <v>0.003327445603876406</v>
       </c>
       <c r="B4" t="n">
         <v>0.08406344198846653</v>
@@ -494,26 +494,26 @@
         <v>0.1240409207161125</v>
       </c>
       <c r="D4" t="n">
-        <v>25.26365626850045</v>
+        <v>25.26365626850048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002488353674205096</v>
+        <v>0.0024883536742051</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08137535483874242</v>
+        <v>0.08137535483874243</v>
       </c>
       <c r="C5" t="n">
         <v>0.1176470588235294</v>
       </c>
       <c r="D5" t="n">
-        <v>32.70248746482461</v>
+        <v>32.70248746482457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002317354192701168</v>
+        <v>0.002317354192701169</v>
       </c>
       <c r="B6" t="n">
         <v>0.08688604814191384</v>
@@ -522,12 +522,12 @@
         <v>0.1167945439045183</v>
       </c>
       <c r="D6" t="n">
-        <v>37.49364185050936</v>
+        <v>37.49364185050934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.007904325511255385</v>
+        <v>0.007904325511255318</v>
       </c>
       <c r="B7" t="n">
         <v>0.07934628294278562</v>
@@ -536,12 +536,12 @@
         <v>0.1129582267689685</v>
       </c>
       <c r="D7" t="n">
-        <v>10.03833696243914</v>
+        <v>10.03833696243923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003095214913353171</v>
+        <v>0.003095214913353185</v>
       </c>
       <c r="B8" t="n">
         <v>0.09263126136252933</v>
@@ -550,12 +550,12 @@
         <v>0.0907928388746803</v>
       </c>
       <c r="D8" t="n">
-        <v>29.92724704281621</v>
+        <v>29.92724704281608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003157503170096494</v>
+        <v>0.003157503170096507</v>
       </c>
       <c r="B9" t="n">
         <v>0.08386861750711791</v>
@@ -564,12 +564,12 @@
         <v>0.1057118499573743</v>
       </c>
       <c r="D9" t="n">
-        <v>26.56168909073648</v>
+        <v>26.56168909073637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.005214375806002809</v>
+        <v>0.005214375806002818</v>
       </c>
       <c r="B10" t="n">
         <v>0.0853514372356991</v>
@@ -578,12 +578,12 @@
         <v>0.1138107416879795</v>
       </c>
       <c r="D10" t="n">
-        <v>16.3684859724614</v>
+        <v>16.36848597246138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004524383125416673</v>
+        <v>0.004524383125416663</v>
       </c>
       <c r="B11" t="n">
         <v>0.07982069090685073</v>
@@ -592,7 +592,7 @@
         <v>0.1095481670929241</v>
       </c>
       <c r="D11" t="n">
-        <v>17.64233679911881</v>
+        <v>17.64233679911885</v>
       </c>
     </row>
   </sheetData>
